--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0642F5B-1479-4BA7-9E61-55C3B24FEF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7073074B-1902-40F5-BFA8-699860E463AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,8 +793,8 @@
   </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mclauffer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA4B7AF-B4AF-4930-A15F-86D583BC6772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B32B7E-A21C-417B-9204-044B8A1460A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="138">
   <si>
     <t>Current Date</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>c.399T&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussion of what we are looking for: looking to collect information about current and past ASO development projects- including exons that are being skipped </t>
   </si>
 </sst>
 </file>
@@ -868,10 +865,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3163,19 +3160,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>138</v>
-      </c>
+    <row r="60" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
     </row>
     <row r="61" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
     <row r="62" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-    </row>
-    <row r="63" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="7">
